--- a/docs/CodeSystem-BRFrequenciaUsoSubstancia.xlsx
+++ b/docs/CodeSystem-BRFrequenciaUsoSubstancia.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>

--- a/docs/CodeSystem-BRFrequenciaUsoSubstancia.xlsx
+++ b/docs/CodeSystem-BRFrequenciaUsoSubstancia.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/CodeSystem-BRFrequenciaUsoSubstancia.xlsx
+++ b/docs/CodeSystem-BRFrequenciaUsoSubstancia.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/CodeSystem-BRFrequenciaUsoSubstancia.xlsx
+++ b/docs/CodeSystem-BRFrequenciaUsoSubstancia.xlsx
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>null (http://www.saude.gov.br)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
